--- a/biology/Zoologie/Guillemot_de_Troïl/Guillemot_de_Troïl.xlsx
+++ b/biology/Zoologie/Guillemot_de_Troïl/Guillemot_de_Troïl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Guillemot_de_Tro%C3%AFl</t>
+          <t>Guillemot_de_Troïl</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Uria aalge
-Le Guillemot de Troïl[1], connu aussi sous le nom de Guillemot marmette au Canada, est une espèce d'oiseaux marins de la famille des alcidés.
+Le Guillemot de Troïl, connu aussi sous le nom de Guillemot marmette au Canada, est une espèce d'oiseaux marins de la famille des alcidés.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Guillemot_de_Tro%C3%AFl</t>
+          <t>Guillemot_de_Troïl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guillemot de Troïl proviendrait de « niais et fol »[2] (lumme et trottel en vieux-germanique)[3] mais le nom guillemot a aussi été rapproché du prénom « Guillaume »[4]. Le nom scientifique Uria aalge dérive du grec ancien ouria, oiseau de mer évoqué par le musicien Athénée, et du danois aalge, du norrois alka désignant cette famille d'oiseaux[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guillemot de Troïl proviendrait de « niais et fol » (lumme et trottel en vieux-germanique) mais le nom guillemot a aussi été rapproché du prénom « Guillaume ». Le nom scientifique Uria aalge dérive du grec ancien ouria, oiseau de mer évoqué par le musicien Athénée, et du danois aalge, du norrois alka désignant cette famille d'oiseaux.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Guillemot_de_Tro%C3%AFl</t>
+          <t>Guillemot_de_Troïl</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le guillemot marmette ou de Troïl ressemble de loin au petit Pingouin et se tient d'ailleurs debout comme le Pingouin lorsqu'il est à terre.
 Les adultes mesurent de 38 à 46 cm de longueur, avec une envergure de 61 à 73 cm.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Guillemot_de_Tro%C3%AFl</t>
+          <t>Guillemot_de_Troïl</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,41 +595,83 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentation
-Le guillemot de Troïl ou marmette est une espèce pélagique, qui passe presque tout son temps en mer, sauf pendant la période de reproduction. Il plonge et cherche sa nourriture en « volant » littéralement sous l'eau à l'aide de ses puissantes ailes. Il se nourrit surtout de petits poissons de banc (200 mm de long au maximum), comme les lançons, mais aussi de crustacés, de vers marins et de calmars. Il plonge souvent jusqu'à 30 m de profondeur, mais on a enregistré des plongeons de plus de 150 m.
-Reproduction
-Cet oiseau niche généralement en colonies denses et pond son unique œuf directement sur le roc ou le sol sans faire de nid[6]. Les œufs ont la forme d'une poire, de telle façon qu'ils pivotent sur eux-mêmes lorsqu'ils sont dérangés, et ne tombent pas en bas de la falaise. Leurs couleurs et leurs motifs varient, probablement pour aider les adultes à les reconnaître. Dès qu'il atteint deux semaines, le jeune n'est plus nourri au nid par ses parents. C'est sur l'eau que ses parents le nourriront jusqu'à l'achèvement de sa croissance (la taille d'un gros canard), vers la fin de l'été.
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le guillemot de Troïl ou marmette est une espèce pélagique, qui passe presque tout son temps en mer, sauf pendant la période de reproduction. Il plonge et cherche sa nourriture en « volant » littéralement sous l'eau à l'aide de ses puissantes ailes. Il se nourrit surtout de petits poissons de banc (200 mm de long au maximum), comme les lançons, mais aussi de crustacés, de vers marins et de calmars. Il plonge souvent jusqu'à 30 m de profondeur, mais on a enregistré des plongeons de plus de 150 m.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Guillemot_de_Troïl</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guillemot_de_Tro%C3%AFl</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau niche généralement en colonies denses et pond son unique œuf directement sur le roc ou le sol sans faire de nid. Les œufs ont la forme d'une poire, de telle façon qu'ils pivotent sur eux-mêmes lorsqu'ils sont dérangés, et ne tombent pas en bas de la falaise. Leurs couleurs et leurs motifs varient, probablement pour aider les adultes à les reconnaître. Dès qu'il atteint deux semaines, le jeune n'est plus nourri au nid par ses parents. C'est sur l'eau que ses parents le nourriront jusqu'à l'achèvement de sa croissance (la taille d'un gros canard), vers la fin de l'été.
 Le guillemot de Troïl ou marmette s'installe volontiers en colonies à mi-hauteur des falaises.
 On ne trouve plus en France que 150 couples, de la sous-espèce Uria aalge albionis, confinés aux côtes nord de la Bretagne, où la pollution pétrolière les menace gravement. Aux îles Britanniques, c'est, avec 570 000 couples nicheurs, un oiseau de mer encore commun au début du XXIe siècle. Après quelques migrations vers le sud, les adultes deviennent presque sédentaires.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Guillemot_de_Tro%C3%AFl</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Guillemot_de_Tro%C3%AFl</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Guillemot_de_Troïl</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guillemot_de_Tro%C3%AFl</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le guillemot marmette ou de Troïl niche sur des îles, des rivages, des falaises et des pitons rocheux sur les côtes de l'Atlantique et du Pacifique Nord, en Amérique du Nord et en Europe de l'Ouest et du Nord (jusqu'à la péninsule de Kola en Russie). Pendant la période de reproduction, on le trouve sur la côte nord du Pacifique en Alaska, en Colombie-Britannique et vers le sud jusqu'au centre de la Californie et le nord du Japon, ainsi que sur les côtes de l'Atlantique nord, du Labrador jusqu'en Nouvelle-Écosse, et de la Norvège jusqu'au Portugal. En France, quelques couples nichent encore dans la réserve du Cap Sizun, dans le Finistère, dans la réserve naturelle des Sept-Îles au large de Perros-Guirec ainsi que  dans les falaises du cap Fréhel dans les Côtes-d'Armor.
 Certains oiseaux sont des résidents permanents, mais pendant l'hiver, les oiseaux nordiques migrent vers le sud pour trouver des eaux libres de glace jusqu'en Nouvelle-Angleterre, au sud de la Californie et à l'ouest de la Méditerranée.
@@ -621,37 +679,108 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Guillemot_de_Tro%C3%AFl</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Guillemot_de_Tro%C3%AFl</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Guillemot_de_Troïl</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guillemot_de_Tro%C3%AFl</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>L'espèce Uria aalge a été décrite par le zoologiste danois Erik Pontoppidan en 1763[7].
-Synonymes
-Colymbus aalge  Pontoppidan, 1763 Protonyme
-Taxinomie
-D'après Alan P. Peterson, cette espèce est constituée des cinq sous-espèces suivantes :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Uria aalge a été décrite par le zoologiste danois Erik Pontoppidan en 1763.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Guillemot_de_Troïl</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guillemot_de_Tro%C3%AFl</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Colymbus aalge  Pontoppidan, 1763 Protonyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Guillemot_de_Troïl</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guillemot_de_Tro%C3%AFl</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>D'après Alan P. Peterson, cette espèce est constituée des cinq sous-espèces suivantes :
 Uria aalge aalge (Pontoppidan) 1763 ;
 Uria aalge albionis Witherby 1923 ;
 Uria aalge californica (H. Bryant) 1861 ;
@@ -666,34 +795,39 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Guillemot_de_Tro%C3%AFl</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Guillemot_de_Tro%C3%AFl</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Guillemot_de_Troïl</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guillemot_de_Tro%C3%AFl</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Le Guillemot de Troïl et l'Homme</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Dans la littérature
-Cet animal a donné son nom au héros de la trilogie Le Livre des Étoiles, d'Erik L'Homme ainsi qu'à un personnage principal de la bande dessinée Les 7 Vies de l'épervier.</t>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Dans la littérature</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Cet animal a donné son nom au héros de la trilogie Le Livre des Étoiles, d'Erik L'Homme ainsi qu'à un personnage principal de la bande dessinée Les 7 Vies de l'épervier.</t>
         </is>
       </c>
     </row>
